--- a/Statistics with excel.xlsx
+++ b/Statistics with excel.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Python general scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C3D249-7E6D-4E0F-A715-CFFBCF1196BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF6E738-0D28-40AB-A392-F48CB0AFBAFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2835" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{457A4CCA-6024-471C-AD07-FEDBCA34C526}"/>
+    <workbookView xWindow="-28920" yWindow="2835" windowWidth="29040" windowHeight="16440" xr2:uid="{457A4CCA-6024-471C-AD07-FEDBCA34C526}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hypothesis Testing" sheetId="1" r:id="rId1"/>
-    <sheet name="Proportion - Two Sample" sheetId="4" r:id="rId2"/>
-    <sheet name="Frequency" sheetId="2" r:id="rId3"/>
-    <sheet name="Freq - Catgoricala" sheetId="3" r:id="rId4"/>
-    <sheet name="Regression" sheetId="5" r:id="rId5"/>
-    <sheet name="Z-score" sheetId="6" r:id="rId6"/>
-    <sheet name="Central Limit Theorem" sheetId="7" r:id="rId7"/>
-    <sheet name="Confidence Interval" sheetId="8" r:id="rId8"/>
+    <sheet name="Monte Carlo" sheetId="9" r:id="rId1"/>
+    <sheet name="Hypothesis Testing" sheetId="1" r:id="rId2"/>
+    <sheet name="Proportion - Two Sample" sheetId="4" r:id="rId3"/>
+    <sheet name="Frequency" sheetId="2" r:id="rId4"/>
+    <sheet name="Freq - Catgoricala" sheetId="3" r:id="rId5"/>
+    <sheet name="Regression" sheetId="5" r:id="rId6"/>
+    <sheet name="Z-score" sheetId="6" r:id="rId7"/>
+    <sheet name="Central Limit Theorem" sheetId="7" r:id="rId8"/>
+    <sheet name="Confidence Interval" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Freq - Catgoricala'!$A$1:$A$25</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="3">'Freq - Catgoricala'!$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Freq - Catgoricala'!$A$1:$A$25</definedName>
+    <definedName name="profit">'Monte Carlo'!$I$4:$I$503</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">'Freq - Catgoricala'!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="136">
   <si>
     <t>t-检验: 双样本异方差假设</t>
   </si>
@@ -403,12 +405,60 @@
   <si>
     <t>Desired Error</t>
   </si>
+  <si>
+    <t>Monte Carlo Simulation using What If Analysis</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>Variable Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected </t>
+  </si>
+  <si>
+    <t>St.Dev.</t>
+  </si>
+  <si>
+    <t>1st Simulation</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Profits</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>risk of loss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +484,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -476,10 +533,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -498,9 +556,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2624,6 +2688,4145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87F1E85-484C-4A89-9818-7B03116341DF}">
+  <dimension ref="A1:I503"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
+        <f ca="1">F8</f>
+        <v>25925.181599153584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="13">
+        <v>194000</v>
+      </c>
+      <c r="C5" s="13">
+        <v>60000</v>
+      </c>
+      <c r="D5" s="13">
+        <v>100000</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="dataTable" ref="I5:I503" dt2D="0" dtr="0" r1="K5" ca="1"/>
+        <v>15251.309734368406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4000</v>
+      </c>
+      <c r="D6" s="13">
+        <v>40000</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>86764.004141084719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>-49645.986956358247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="13">
+        <f ca="1">_xlfn.NORM.INV(RAND(),B5,B6)</f>
+        <v>177005.90020286801</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" ref="C8:D8" ca="1" si="0">_xlfn.NORM.INV(RAND(),C5,C6)</f>
+        <v>61504.403484410956</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>89576.315119303472</v>
+      </c>
+      <c r="F8" s="13">
+        <f ca="1">B8-C8-D8</f>
+        <v>25925.181599153584</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>51570.953355202801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>85995.197299572683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>37127.303439882133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11">
+        <f ca="1">AVERAGE(profit)</f>
+        <v>35459.97856278476</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>-1436.0887755986769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12">
+        <f ca="1">_xlfn.STDEV.P(profit)</f>
+        <v>43931.92684343065</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>36587.82736867771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13">
+        <f ca="1">MIN(profit)</f>
+        <v>-124576.72184496289</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>12538.571690455588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14">
+        <f ca="1">MAX(profit)</f>
+        <v>151103.20773457375</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>27287.507733569335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>61623.585868895694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="14">
+        <f ca="1">COUNTIF(profit,"&lt;0")/500</f>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>-19425.882793568919</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>120718.89900641689</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>-10510.036475229412</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>33896.752908144743</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>10025.250273068668</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>48195.928834188206</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <v>139532.33989670785</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>18527.483387132903</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <v>19002.760419287515</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <v>46168.942330062535</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>23</v>
+      </c>
+      <c r="I26">
+        <v>31782.476026394957</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>8296.3822944995773</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>25</v>
+      </c>
+      <c r="I28">
+        <v>10233.562882722996</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>26</v>
+      </c>
+      <c r="I29">
+        <v>51792.452440920984</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>-2580.7984587091196</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <v>50592.973727820412</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>29</v>
+      </c>
+      <c r="I32">
+        <v>-5911.8107744666922</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>94075.879247363599</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>31</v>
+      </c>
+      <c r="I34">
+        <v>-31086.382785785914</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>32</v>
+      </c>
+      <c r="I35">
+        <v>121971.72673038759</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>33</v>
+      </c>
+      <c r="I36">
+        <v>49992.929407190677</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>34</v>
+      </c>
+      <c r="I37">
+        <v>40072.818276282051</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>35</v>
+      </c>
+      <c r="I38">
+        <v>75866.615818742066</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>36</v>
+      </c>
+      <c r="I39">
+        <v>106438.23155206622</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>37</v>
+      </c>
+      <c r="I40">
+        <v>33461.599750245849</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>38</v>
+      </c>
+      <c r="I41">
+        <v>37546.492732412415</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>39</v>
+      </c>
+      <c r="I42">
+        <v>50975.998788211597</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>40</v>
+      </c>
+      <c r="I43">
+        <v>123275.56114051644</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>41</v>
+      </c>
+      <c r="I44">
+        <v>88649.637280630865</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>10932.010826168553</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>43</v>
+      </c>
+      <c r="I46">
+        <v>24946.791953056629</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>44</v>
+      </c>
+      <c r="I47">
+        <v>-43693.111940055882</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>45</v>
+      </c>
+      <c r="I48">
+        <v>-37663.985008200601</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>46</v>
+      </c>
+      <c r="I49">
+        <v>86671.3433780224</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>47</v>
+      </c>
+      <c r="I50">
+        <v>60101.074771917571</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>48</v>
+      </c>
+      <c r="I51">
+        <v>36904.647914452755</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>49</v>
+      </c>
+      <c r="I52">
+        <v>70777.805682370177</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="I53">
+        <v>-37753.634260379768</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>51</v>
+      </c>
+      <c r="I54">
+        <v>27060.69174152636</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>52</v>
+      </c>
+      <c r="I55">
+        <v>62284.14758591108</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>53</v>
+      </c>
+      <c r="I56">
+        <v>20759.533932550941</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>54</v>
+      </c>
+      <c r="I57">
+        <v>99381.419647338771</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>55</v>
+      </c>
+      <c r="I58">
+        <v>-42393.198972011858</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>56</v>
+      </c>
+      <c r="I59">
+        <v>87253.831872905357</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>57</v>
+      </c>
+      <c r="I60">
+        <v>33023.536233347651</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>58</v>
+      </c>
+      <c r="I61">
+        <v>106478.49633881486</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>59</v>
+      </c>
+      <c r="I62">
+        <v>103084.95577901378</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>60</v>
+      </c>
+      <c r="I63">
+        <v>51723.065453889241</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>61</v>
+      </c>
+      <c r="I64">
+        <v>-26703.610675726639</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>62</v>
+      </c>
+      <c r="I65">
+        <v>63145.822765868623</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>63</v>
+      </c>
+      <c r="I66">
+        <v>-11901.028928732441</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>64</v>
+      </c>
+      <c r="I67">
+        <v>73119.482916839304</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>65</v>
+      </c>
+      <c r="I68">
+        <v>-40302.394775351102</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>66</v>
+      </c>
+      <c r="I69">
+        <v>45166.37810780741</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>67</v>
+      </c>
+      <c r="I70">
+        <v>40884.666640039097</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>68</v>
+      </c>
+      <c r="I71">
+        <v>103177.42796981505</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>69</v>
+      </c>
+      <c r="I72">
+        <v>63483.919059166175</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>70</v>
+      </c>
+      <c r="I73">
+        <v>74084.500370669019</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>71</v>
+      </c>
+      <c r="I74">
+        <v>67363.528310391906</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>72</v>
+      </c>
+      <c r="I75">
+        <v>34611.768482858548</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>73</v>
+      </c>
+      <c r="I76">
+        <v>2943.3355478479934</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>74</v>
+      </c>
+      <c r="I77">
+        <v>151103.20773457375</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>75</v>
+      </c>
+      <c r="I78">
+        <v>109075.93153676328</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>76</v>
+      </c>
+      <c r="I79">
+        <v>78066.188311678503</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>77</v>
+      </c>
+      <c r="I80">
+        <v>135925.0174240295</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>78</v>
+      </c>
+      <c r="I81">
+        <v>-2654.6604441977834</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>79</v>
+      </c>
+      <c r="I82">
+        <v>27918.051060308178</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>80</v>
+      </c>
+      <c r="I83">
+        <v>-20697.807016495542</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>81</v>
+      </c>
+      <c r="I84">
+        <v>10111.119664635044</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>82</v>
+      </c>
+      <c r="I85">
+        <v>21297.706755543419</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>83</v>
+      </c>
+      <c r="I86">
+        <v>80447.103431994867</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>84</v>
+      </c>
+      <c r="I87">
+        <v>-32149.1809101791</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>85</v>
+      </c>
+      <c r="I88">
+        <v>74276.247358506356</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>86</v>
+      </c>
+      <c r="I89">
+        <v>60869.264903447547</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>87</v>
+      </c>
+      <c r="I90">
+        <v>34453.267679261742</v>
+      </c>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>88</v>
+      </c>
+      <c r="I91">
+        <v>33550.029268497834</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>89</v>
+      </c>
+      <c r="I92">
+        <v>73975.083433814725</v>
+      </c>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>90</v>
+      </c>
+      <c r="I93">
+        <v>38701.354025626992</v>
+      </c>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>91</v>
+      </c>
+      <c r="I94">
+        <v>62381.281097426909</v>
+      </c>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>92</v>
+      </c>
+      <c r="I95">
+        <v>-12000.048661035515</v>
+      </c>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>93</v>
+      </c>
+      <c r="I96">
+        <v>3106.8846471957804</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>94</v>
+      </c>
+      <c r="I97">
+        <v>80652.909436902002</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>95</v>
+      </c>
+      <c r="I98">
+        <v>55294.900228558967</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>96</v>
+      </c>
+      <c r="I99">
+        <v>28147.22043921017</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>97</v>
+      </c>
+      <c r="I100">
+        <v>42485.616865539399</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>98</v>
+      </c>
+      <c r="I101">
+        <v>14510.431998561224</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>99</v>
+      </c>
+      <c r="I102">
+        <v>33060.320666610554</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>100</v>
+      </c>
+      <c r="I103">
+        <v>-10003.988994899817</v>
+      </c>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>101</v>
+      </c>
+      <c r="I104">
+        <v>38577.230746333094</v>
+      </c>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>102</v>
+      </c>
+      <c r="I105">
+        <v>-1950.8679401531117</v>
+      </c>
+    </row>
+    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>103</v>
+      </c>
+      <c r="I106">
+        <v>6456.8533158064238</v>
+      </c>
+    </row>
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>104</v>
+      </c>
+      <c r="I107">
+        <v>25488.141437220125</v>
+      </c>
+    </row>
+    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>105</v>
+      </c>
+      <c r="I108">
+        <v>-29311.337808454409</v>
+      </c>
+    </row>
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>106</v>
+      </c>
+      <c r="I109">
+        <v>71491.380406356417</v>
+      </c>
+    </row>
+    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>107</v>
+      </c>
+      <c r="I110">
+        <v>42435.368870503866</v>
+      </c>
+    </row>
+    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>108</v>
+      </c>
+      <c r="I111">
+        <v>47885.396609900316</v>
+      </c>
+    </row>
+    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>109</v>
+      </c>
+      <c r="I112">
+        <v>100005.65418120619</v>
+      </c>
+    </row>
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>110</v>
+      </c>
+      <c r="I113">
+        <v>65529.839484904631</v>
+      </c>
+    </row>
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>111</v>
+      </c>
+      <c r="I114">
+        <v>52199.052925710392</v>
+      </c>
+    </row>
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>112</v>
+      </c>
+      <c r="I115">
+        <v>50825.411898230188</v>
+      </c>
+    </row>
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>113</v>
+      </c>
+      <c r="I116">
+        <v>58634.411145177219</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>114</v>
+      </c>
+      <c r="I117">
+        <v>47394.124347375298</v>
+      </c>
+    </row>
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>115</v>
+      </c>
+      <c r="I118">
+        <v>69499.090955397798</v>
+      </c>
+    </row>
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>116</v>
+      </c>
+      <c r="I119">
+        <v>45375.637690878269</v>
+      </c>
+    </row>
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>117</v>
+      </c>
+      <c r="I120">
+        <v>8700.7427596034395</v>
+      </c>
+    </row>
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>118</v>
+      </c>
+      <c r="I121">
+        <v>2587.7881617241801</v>
+      </c>
+    </row>
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>119</v>
+      </c>
+      <c r="I122">
+        <v>56725.55515118163</v>
+      </c>
+    </row>
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>120</v>
+      </c>
+      <c r="I123">
+        <v>16248.583293951073</v>
+      </c>
+    </row>
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>121</v>
+      </c>
+      <c r="I124">
+        <v>26597.180813797342</v>
+      </c>
+    </row>
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>122</v>
+      </c>
+      <c r="I125">
+        <v>-65353.335836627346</v>
+      </c>
+    </row>
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>123</v>
+      </c>
+      <c r="I126">
+        <v>84430.747049018624</v>
+      </c>
+    </row>
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>124</v>
+      </c>
+      <c r="I127">
+        <v>36997.898595330276</v>
+      </c>
+    </row>
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>125</v>
+      </c>
+      <c r="I128">
+        <v>29989.760846623125</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>126</v>
+      </c>
+      <c r="I129">
+        <v>293.68372947938042</v>
+      </c>
+    </row>
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>127</v>
+      </c>
+      <c r="I130">
+        <v>18760.825839945464</v>
+      </c>
+    </row>
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>128</v>
+      </c>
+      <c r="I131">
+        <v>-22877.626446464186</v>
+      </c>
+    </row>
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>129</v>
+      </c>
+      <c r="I132">
+        <v>73008.553432008397</v>
+      </c>
+    </row>
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>130</v>
+      </c>
+      <c r="I133">
+        <v>35147.446935920772</v>
+      </c>
+    </row>
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>131</v>
+      </c>
+      <c r="I134">
+        <v>-46218.968111315655</v>
+      </c>
+    </row>
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>132</v>
+      </c>
+      <c r="I135">
+        <v>15264.323629942111</v>
+      </c>
+    </row>
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>133</v>
+      </c>
+      <c r="I136">
+        <v>19757.533792945251</v>
+      </c>
+    </row>
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>134</v>
+      </c>
+      <c r="I137">
+        <v>35366.093935515542</v>
+      </c>
+    </row>
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>135</v>
+      </c>
+      <c r="I138">
+        <v>43416.258760230048</v>
+      </c>
+    </row>
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>136</v>
+      </c>
+      <c r="I139">
+        <v>91061.879516523157</v>
+      </c>
+    </row>
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>137</v>
+      </c>
+      <c r="I140">
+        <v>44353.545834343415</v>
+      </c>
+    </row>
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>138</v>
+      </c>
+      <c r="I141">
+        <v>28871.945975759547</v>
+      </c>
+    </row>
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>139</v>
+      </c>
+      <c r="I142">
+        <v>5427.1231075117248</v>
+      </c>
+    </row>
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>140</v>
+      </c>
+      <c r="I143">
+        <v>51198.217601588272</v>
+      </c>
+    </row>
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>141</v>
+      </c>
+      <c r="I144">
+        <v>76852.846958938666</v>
+      </c>
+    </row>
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>142</v>
+      </c>
+      <c r="I145">
+        <v>58356.280285337016</v>
+      </c>
+    </row>
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>143</v>
+      </c>
+      <c r="I146">
+        <v>-4521.5441628763801</v>
+      </c>
+    </row>
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <v>144</v>
+      </c>
+      <c r="I147">
+        <v>70420.728227332496</v>
+      </c>
+    </row>
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <v>145</v>
+      </c>
+      <c r="I148">
+        <v>82551.795636827446</v>
+      </c>
+    </row>
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>146</v>
+      </c>
+      <c r="I149">
+        <v>-7807.7907335156924</v>
+      </c>
+    </row>
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>147</v>
+      </c>
+      <c r="I150">
+        <v>141.46782291139243</v>
+      </c>
+    </row>
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>148</v>
+      </c>
+      <c r="I151">
+        <v>12810.530225996758</v>
+      </c>
+    </row>
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <v>149</v>
+      </c>
+      <c r="I152">
+        <v>-657.96265425617457</v>
+      </c>
+    </row>
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <v>150</v>
+      </c>
+      <c r="I153">
+        <v>93727.73380022982</v>
+      </c>
+    </row>
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <v>151</v>
+      </c>
+      <c r="I154">
+        <v>78736.340479276085</v>
+      </c>
+    </row>
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>152</v>
+      </c>
+      <c r="I155">
+        <v>-44767.726805406623</v>
+      </c>
+    </row>
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <v>153</v>
+      </c>
+      <c r="I156">
+        <v>-7352.275842184099</v>
+      </c>
+    </row>
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H157">
+        <v>154</v>
+      </c>
+      <c r="I157">
+        <v>82916.2054047602</v>
+      </c>
+    </row>
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <v>155</v>
+      </c>
+      <c r="I158">
+        <v>46551.583372233741</v>
+      </c>
+    </row>
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <v>156</v>
+      </c>
+      <c r="I159">
+        <v>48152.451553742838</v>
+      </c>
+    </row>
+    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>157</v>
+      </c>
+      <c r="I160">
+        <v>8164.2392414110654</v>
+      </c>
+    </row>
+    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>158</v>
+      </c>
+      <c r="I161">
+        <v>95110.561207395775</v>
+      </c>
+    </row>
+    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <v>159</v>
+      </c>
+      <c r="I162">
+        <v>79401.4967887612</v>
+      </c>
+    </row>
+    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <v>160</v>
+      </c>
+      <c r="I163">
+        <v>129843.719627613</v>
+      </c>
+    </row>
+    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>161</v>
+      </c>
+      <c r="I164">
+        <v>43208.523382055326</v>
+      </c>
+    </row>
+    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <v>162</v>
+      </c>
+      <c r="I165">
+        <v>40906.036510750069</v>
+      </c>
+    </row>
+    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <v>163</v>
+      </c>
+      <c r="I166">
+        <v>-75936.081031297537</v>
+      </c>
+    </row>
+    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <v>164</v>
+      </c>
+      <c r="I167">
+        <v>4504.1057342217246</v>
+      </c>
+    </row>
+    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <v>165</v>
+      </c>
+      <c r="I168">
+        <v>94322.518645639546</v>
+      </c>
+    </row>
+    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <v>166</v>
+      </c>
+      <c r="I169">
+        <v>59810.869675413269</v>
+      </c>
+    </row>
+    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <v>167</v>
+      </c>
+      <c r="I170">
+        <v>21886.857238250377</v>
+      </c>
+    </row>
+    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <v>168</v>
+      </c>
+      <c r="I171">
+        <v>37578.578241409166</v>
+      </c>
+    </row>
+    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <v>169</v>
+      </c>
+      <c r="I172">
+        <v>-55317.263326629676</v>
+      </c>
+    </row>
+    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H173">
+        <v>170</v>
+      </c>
+      <c r="I173">
+        <v>-39272.493344842369</v>
+      </c>
+    </row>
+    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <v>171</v>
+      </c>
+      <c r="I174">
+        <v>46788.289233375239</v>
+      </c>
+    </row>
+    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <v>172</v>
+      </c>
+      <c r="I175">
+        <v>19227.828276748201</v>
+      </c>
+    </row>
+    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <v>173</v>
+      </c>
+      <c r="I176">
+        <v>103941.09721284865</v>
+      </c>
+    </row>
+    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <v>174</v>
+      </c>
+      <c r="I177">
+        <v>6182.4123975615075</v>
+      </c>
+    </row>
+    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <v>175</v>
+      </c>
+      <c r="I178">
+        <v>37533.642498477318</v>
+      </c>
+    </row>
+    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <v>176</v>
+      </c>
+      <c r="I179">
+        <v>97153.14282937572</v>
+      </c>
+    </row>
+    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <v>177</v>
+      </c>
+      <c r="I180">
+        <v>80858.647382752679</v>
+      </c>
+    </row>
+    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>178</v>
+      </c>
+      <c r="I181">
+        <v>70800.983006556868</v>
+      </c>
+    </row>
+    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>179</v>
+      </c>
+      <c r="I182">
+        <v>28557.832923879439</v>
+      </c>
+    </row>
+    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <v>180</v>
+      </c>
+      <c r="I183">
+        <v>61646.768843024751</v>
+      </c>
+    </row>
+    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <v>181</v>
+      </c>
+      <c r="I184">
+        <v>-26926.186203253485</v>
+      </c>
+    </row>
+    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <v>182</v>
+      </c>
+      <c r="I185">
+        <v>44942.224076187806</v>
+      </c>
+    </row>
+    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <v>183</v>
+      </c>
+      <c r="I186">
+        <v>-35620.238015203824</v>
+      </c>
+    </row>
+    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <v>184</v>
+      </c>
+      <c r="I187">
+        <v>21721.501319450894</v>
+      </c>
+    </row>
+    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <v>185</v>
+      </c>
+      <c r="I188">
+        <v>85750.266753878386</v>
+      </c>
+    </row>
+    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <v>186</v>
+      </c>
+      <c r="I189">
+        <v>5262.0759319853969</v>
+      </c>
+    </row>
+    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H190">
+        <v>187</v>
+      </c>
+      <c r="I190">
+        <v>10324.80373242739</v>
+      </c>
+    </row>
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H191">
+        <v>188</v>
+      </c>
+      <c r="I191">
+        <v>-7960.8707543162745</v>
+      </c>
+    </row>
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H192">
+        <v>189</v>
+      </c>
+      <c r="I192">
+        <v>-8732.7047075410956</v>
+      </c>
+    </row>
+    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H193">
+        <v>190</v>
+      </c>
+      <c r="I193">
+        <v>68292.881793432622</v>
+      </c>
+    </row>
+    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H194">
+        <v>191</v>
+      </c>
+      <c r="I194">
+        <v>-11646.181978944805</v>
+      </c>
+    </row>
+    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <v>192</v>
+      </c>
+      <c r="I195">
+        <v>-13416.369372876448</v>
+      </c>
+    </row>
+    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H196">
+        <v>193</v>
+      </c>
+      <c r="I196">
+        <v>-22281.83768915807</v>
+      </c>
+    </row>
+    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <v>194</v>
+      </c>
+      <c r="I197">
+        <v>58920.857771561823</v>
+      </c>
+    </row>
+    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H198">
+        <v>195</v>
+      </c>
+      <c r="I198">
+        <v>-26044.709567640268</v>
+      </c>
+    </row>
+    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H199">
+        <v>196</v>
+      </c>
+      <c r="I199">
+        <v>83732.448469224575</v>
+      </c>
+    </row>
+    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H200">
+        <v>197</v>
+      </c>
+      <c r="I200">
+        <v>125705.19581055491</v>
+      </c>
+    </row>
+    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H201">
+        <v>198</v>
+      </c>
+      <c r="I201">
+        <v>-29426.378652976447</v>
+      </c>
+    </row>
+    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H202">
+        <v>199</v>
+      </c>
+      <c r="I202">
+        <v>12532.215971498765</v>
+      </c>
+    </row>
+    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H203">
+        <v>200</v>
+      </c>
+      <c r="I203">
+        <v>-3344.2721650551248</v>
+      </c>
+    </row>
+    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H204">
+        <v>201</v>
+      </c>
+      <c r="I204">
+        <v>-15818.803249545046</v>
+      </c>
+    </row>
+    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H205">
+        <v>202</v>
+      </c>
+      <c r="I205">
+        <v>27395.523106019886</v>
+      </c>
+    </row>
+    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H206">
+        <v>203</v>
+      </c>
+      <c r="I206">
+        <v>30409.162782343687</v>
+      </c>
+    </row>
+    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H207">
+        <v>204</v>
+      </c>
+      <c r="I207">
+        <v>59552.706353179274</v>
+      </c>
+    </row>
+    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H208">
+        <v>205</v>
+      </c>
+      <c r="I208">
+        <v>22174.858334671342</v>
+      </c>
+    </row>
+    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H209">
+        <v>206</v>
+      </c>
+      <c r="I209">
+        <v>-24637.597962844389</v>
+      </c>
+    </row>
+    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H210">
+        <v>207</v>
+      </c>
+      <c r="I210">
+        <v>-2981.0243274149689</v>
+      </c>
+    </row>
+    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H211">
+        <v>208</v>
+      </c>
+      <c r="I211">
+        <v>7176.9175713199074</v>
+      </c>
+    </row>
+    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H212">
+        <v>209</v>
+      </c>
+      <c r="I212">
+        <v>43921.797811926401</v>
+      </c>
+    </row>
+    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H213">
+        <v>210</v>
+      </c>
+      <c r="I213">
+        <v>8971.0673584422184</v>
+      </c>
+    </row>
+    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H214">
+        <v>211</v>
+      </c>
+      <c r="I214">
+        <v>14864.584030685612</v>
+      </c>
+    </row>
+    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H215">
+        <v>212</v>
+      </c>
+      <c r="I215">
+        <v>15407.15593443907</v>
+      </c>
+    </row>
+    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H216">
+        <v>213</v>
+      </c>
+      <c r="I216">
+        <v>39129.618972430719</v>
+      </c>
+    </row>
+    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H217">
+        <v>214</v>
+      </c>
+      <c r="I217">
+        <v>47314.078266583165</v>
+      </c>
+    </row>
+    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H218">
+        <v>215</v>
+      </c>
+      <c r="I218">
+        <v>70642.025879993511</v>
+      </c>
+    </row>
+    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H219">
+        <v>216</v>
+      </c>
+      <c r="I219">
+        <v>15810.482919644302</v>
+      </c>
+    </row>
+    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H220">
+        <v>217</v>
+      </c>
+      <c r="I220">
+        <v>41146.521879890948</v>
+      </c>
+    </row>
+    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H221">
+        <v>218</v>
+      </c>
+      <c r="I221">
+        <v>42568.61843546445</v>
+      </c>
+    </row>
+    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H222">
+        <v>219</v>
+      </c>
+      <c r="I222">
+        <v>117445.55495449665</v>
+      </c>
+    </row>
+    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H223">
+        <v>220</v>
+      </c>
+      <c r="I223">
+        <v>-9252.0656997656624</v>
+      </c>
+    </row>
+    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H224">
+        <v>221</v>
+      </c>
+      <c r="I224">
+        <v>85338.952346851816</v>
+      </c>
+    </row>
+    <row r="225" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H225">
+        <v>222</v>
+      </c>
+      <c r="I225">
+        <v>70420.065823810146</v>
+      </c>
+    </row>
+    <row r="226" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H226">
+        <v>223</v>
+      </c>
+      <c r="I226">
+        <v>91247.900861889721</v>
+      </c>
+    </row>
+    <row r="227" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H227">
+        <v>224</v>
+      </c>
+      <c r="I227">
+        <v>64670.841180925214</v>
+      </c>
+    </row>
+    <row r="228" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H228">
+        <v>225</v>
+      </c>
+      <c r="I228">
+        <v>11756.450446265691</v>
+      </c>
+    </row>
+    <row r="229" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H229">
+        <v>226</v>
+      </c>
+      <c r="I229">
+        <v>51781.25629606258</v>
+      </c>
+    </row>
+    <row r="230" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H230">
+        <v>227</v>
+      </c>
+      <c r="I230">
+        <v>23668.483465222336</v>
+      </c>
+    </row>
+    <row r="231" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H231">
+        <v>228</v>
+      </c>
+      <c r="I231">
+        <v>91359.821969805678</v>
+      </c>
+    </row>
+    <row r="232" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H232">
+        <v>229</v>
+      </c>
+      <c r="I232">
+        <v>4972.8616720451973</v>
+      </c>
+    </row>
+    <row r="233" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H233">
+        <v>230</v>
+      </c>
+      <c r="I233">
+        <v>70163.602720866169</v>
+      </c>
+    </row>
+    <row r="234" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H234">
+        <v>231</v>
+      </c>
+      <c r="I234">
+        <v>-9586.0345446797146</v>
+      </c>
+    </row>
+    <row r="235" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H235">
+        <v>232</v>
+      </c>
+      <c r="I235">
+        <v>12095.444168288552</v>
+      </c>
+    </row>
+    <row r="236" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H236">
+        <v>233</v>
+      </c>
+      <c r="I236">
+        <v>5450.2807553209714</v>
+      </c>
+    </row>
+    <row r="237" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H237">
+        <v>234</v>
+      </c>
+      <c r="I237">
+        <v>68874.287046097103</v>
+      </c>
+    </row>
+    <row r="238" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H238">
+        <v>235</v>
+      </c>
+      <c r="I238">
+        <v>18537.60060691915</v>
+      </c>
+    </row>
+    <row r="239" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H239">
+        <v>236</v>
+      </c>
+      <c r="I239">
+        <v>-63294.854836217652</v>
+      </c>
+    </row>
+    <row r="240" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H240">
+        <v>237</v>
+      </c>
+      <c r="I240">
+        <v>53183.563213338144</v>
+      </c>
+    </row>
+    <row r="241" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H241">
+        <v>238</v>
+      </c>
+      <c r="I241">
+        <v>47178.6153817593</v>
+      </c>
+    </row>
+    <row r="242" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H242">
+        <v>239</v>
+      </c>
+      <c r="I242">
+        <v>25597.475028282599</v>
+      </c>
+    </row>
+    <row r="243" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H243">
+        <v>240</v>
+      </c>
+      <c r="I243">
+        <v>63729.351294888824</v>
+      </c>
+    </row>
+    <row r="244" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H244">
+        <v>241</v>
+      </c>
+      <c r="I244">
+        <v>81964.206944407983</v>
+      </c>
+    </row>
+    <row r="245" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H245">
+        <v>242</v>
+      </c>
+      <c r="I245">
+        <v>91951.144657129451</v>
+      </c>
+    </row>
+    <row r="246" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H246">
+        <v>243</v>
+      </c>
+      <c r="I246">
+        <v>5963.3442662084417</v>
+      </c>
+    </row>
+    <row r="247" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H247">
+        <v>244</v>
+      </c>
+      <c r="I247">
+        <v>49007.397919608367</v>
+      </c>
+    </row>
+    <row r="248" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H248">
+        <v>245</v>
+      </c>
+      <c r="I248">
+        <v>78962.304129971657</v>
+      </c>
+    </row>
+    <row r="249" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H249">
+        <v>246</v>
+      </c>
+      <c r="I249">
+        <v>-8868.8051217681495</v>
+      </c>
+    </row>
+    <row r="250" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H250">
+        <v>247</v>
+      </c>
+      <c r="I250">
+        <v>34358.791225903071</v>
+      </c>
+    </row>
+    <row r="251" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H251">
+        <v>248</v>
+      </c>
+      <c r="I251">
+        <v>33762.083266252856</v>
+      </c>
+    </row>
+    <row r="252" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H252">
+        <v>249</v>
+      </c>
+      <c r="I252">
+        <v>36849.604356923563</v>
+      </c>
+    </row>
+    <row r="253" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H253">
+        <v>250</v>
+      </c>
+      <c r="I253">
+        <v>56497.220291205755</v>
+      </c>
+    </row>
+    <row r="254" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H254">
+        <v>251</v>
+      </c>
+      <c r="I254">
+        <v>30062.82955560743</v>
+      </c>
+    </row>
+    <row r="255" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H255">
+        <v>252</v>
+      </c>
+      <c r="I255">
+        <v>38272.830613545739</v>
+      </c>
+    </row>
+    <row r="256" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H256">
+        <v>253</v>
+      </c>
+      <c r="I256">
+        <v>88244.620756893855</v>
+      </c>
+    </row>
+    <row r="257" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H257">
+        <v>254</v>
+      </c>
+      <c r="I257">
+        <v>-3404.9359140355373</v>
+      </c>
+    </row>
+    <row r="258" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H258">
+        <v>255</v>
+      </c>
+      <c r="I258">
+        <v>-5149.8536130782741</v>
+      </c>
+    </row>
+    <row r="259" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H259">
+        <v>256</v>
+      </c>
+      <c r="I259">
+        <v>-3154.8945108687039</v>
+      </c>
+    </row>
+    <row r="260" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H260">
+        <v>257</v>
+      </c>
+      <c r="I260">
+        <v>30999.086086405528</v>
+      </c>
+    </row>
+    <row r="261" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H261">
+        <v>258</v>
+      </c>
+      <c r="I261">
+        <v>135848.19220609983</v>
+      </c>
+    </row>
+    <row r="262" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H262">
+        <v>259</v>
+      </c>
+      <c r="I262">
+        <v>8228.169142153798</v>
+      </c>
+    </row>
+    <row r="263" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H263">
+        <v>260</v>
+      </c>
+      <c r="I263">
+        <v>-3839.497260981836</v>
+      </c>
+    </row>
+    <row r="264" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H264">
+        <v>261</v>
+      </c>
+      <c r="I264">
+        <v>72561.071698208616</v>
+      </c>
+    </row>
+    <row r="265" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H265">
+        <v>262</v>
+      </c>
+      <c r="I265">
+        <v>-73962.640888594222</v>
+      </c>
+    </row>
+    <row r="266" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H266">
+        <v>263</v>
+      </c>
+      <c r="I266">
+        <v>25955.504834865467</v>
+      </c>
+    </row>
+    <row r="267" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H267">
+        <v>264</v>
+      </c>
+      <c r="I267">
+        <v>25905.541557509219</v>
+      </c>
+    </row>
+    <row r="268" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H268">
+        <v>265</v>
+      </c>
+      <c r="I268">
+        <v>35741.763801902693</v>
+      </c>
+    </row>
+    <row r="269" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H269">
+        <v>266</v>
+      </c>
+      <c r="I269">
+        <v>-50104.749516065669</v>
+      </c>
+    </row>
+    <row r="270" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H270">
+        <v>267</v>
+      </c>
+      <c r="I270">
+        <v>67027.684942247724</v>
+      </c>
+    </row>
+    <row r="271" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H271">
+        <v>268</v>
+      </c>
+      <c r="I271">
+        <v>73316.677673850965</v>
+      </c>
+    </row>
+    <row r="272" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H272">
+        <v>269</v>
+      </c>
+      <c r="I272">
+        <v>42033.091785419092</v>
+      </c>
+    </row>
+    <row r="273" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H273">
+        <v>270</v>
+      </c>
+      <c r="I273">
+        <v>-21577.771620591404</v>
+      </c>
+    </row>
+    <row r="274" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H274">
+        <v>271</v>
+      </c>
+      <c r="I274">
+        <v>79980.663497453585</v>
+      </c>
+    </row>
+    <row r="275" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H275">
+        <v>272</v>
+      </c>
+      <c r="I275">
+        <v>2692.1646987813438</v>
+      </c>
+    </row>
+    <row r="276" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H276">
+        <v>273</v>
+      </c>
+      <c r="I276">
+        <v>-37253.670365152822</v>
+      </c>
+    </row>
+    <row r="277" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H277">
+        <v>274</v>
+      </c>
+      <c r="I277">
+        <v>72274.283965450391</v>
+      </c>
+    </row>
+    <row r="278" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H278">
+        <v>275</v>
+      </c>
+      <c r="I278">
+        <v>-15158.452902262565</v>
+      </c>
+    </row>
+    <row r="279" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H279">
+        <v>276</v>
+      </c>
+      <c r="I279">
+        <v>-332.23917268702644</v>
+      </c>
+    </row>
+    <row r="280" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H280">
+        <v>277</v>
+      </c>
+      <c r="I280">
+        <v>60345.11644904784</v>
+      </c>
+    </row>
+    <row r="281" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H281">
+        <v>278</v>
+      </c>
+      <c r="I281">
+        <v>-20545.362758913529</v>
+      </c>
+    </row>
+    <row r="282" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H282">
+        <v>279</v>
+      </c>
+      <c r="I282">
+        <v>96973.560402581963</v>
+      </c>
+    </row>
+    <row r="283" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H283">
+        <v>280</v>
+      </c>
+      <c r="I283">
+        <v>37121.201916768026</v>
+      </c>
+    </row>
+    <row r="284" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H284">
+        <v>281</v>
+      </c>
+      <c r="I284">
+        <v>63308.336382967609</v>
+      </c>
+    </row>
+    <row r="285" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H285">
+        <v>282</v>
+      </c>
+      <c r="I285">
+        <v>65450.32656507277</v>
+      </c>
+    </row>
+    <row r="286" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H286">
+        <v>283</v>
+      </c>
+      <c r="I286">
+        <v>1937.7906874717446</v>
+      </c>
+    </row>
+    <row r="287" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H287">
+        <v>284</v>
+      </c>
+      <c r="I287">
+        <v>13785.012376300903</v>
+      </c>
+    </row>
+    <row r="288" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H288">
+        <v>285</v>
+      </c>
+      <c r="I288">
+        <v>31940.597285582204</v>
+      </c>
+    </row>
+    <row r="289" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H289">
+        <v>286</v>
+      </c>
+      <c r="I289">
+        <v>44578.067713076365</v>
+      </c>
+    </row>
+    <row r="290" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H290">
+        <v>287</v>
+      </c>
+      <c r="I290">
+        <v>-20787.004948746588</v>
+      </c>
+    </row>
+    <row r="291" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H291">
+        <v>288</v>
+      </c>
+      <c r="I291">
+        <v>98635.308607972591</v>
+      </c>
+    </row>
+    <row r="292" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H292">
+        <v>289</v>
+      </c>
+      <c r="I292">
+        <v>-71213.037748904651</v>
+      </c>
+    </row>
+    <row r="293" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H293">
+        <v>290</v>
+      </c>
+      <c r="I293">
+        <v>109628.10452503829</v>
+      </c>
+    </row>
+    <row r="294" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H294">
+        <v>291</v>
+      </c>
+      <c r="I294">
+        <v>47772.797979261333</v>
+      </c>
+    </row>
+    <row r="295" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H295">
+        <v>292</v>
+      </c>
+      <c r="I295">
+        <v>68981.550690409029</v>
+      </c>
+    </row>
+    <row r="296" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H296">
+        <v>293</v>
+      </c>
+      <c r="I296">
+        <v>83961.38474346805</v>
+      </c>
+    </row>
+    <row r="297" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H297">
+        <v>294</v>
+      </c>
+      <c r="I297">
+        <v>6962.3708996005298</v>
+      </c>
+    </row>
+    <row r="298" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H298">
+        <v>295</v>
+      </c>
+      <c r="I298">
+        <v>-5816.675684576272</v>
+      </c>
+    </row>
+    <row r="299" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H299">
+        <v>296</v>
+      </c>
+      <c r="I299">
+        <v>-37284.140504985087</v>
+      </c>
+    </row>
+    <row r="300" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H300">
+        <v>297</v>
+      </c>
+      <c r="I300">
+        <v>85338.762871851795</v>
+      </c>
+    </row>
+    <row r="301" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H301">
+        <v>298</v>
+      </c>
+      <c r="I301">
+        <v>5286.2220108543988</v>
+      </c>
+    </row>
+    <row r="302" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H302">
+        <v>299</v>
+      </c>
+      <c r="I302">
+        <v>55447.588568763545</v>
+      </c>
+    </row>
+    <row r="303" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H303">
+        <v>300</v>
+      </c>
+      <c r="I303">
+        <v>33558.923935269951</v>
+      </c>
+    </row>
+    <row r="304" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H304">
+        <v>301</v>
+      </c>
+      <c r="I304">
+        <v>56761.897667280544</v>
+      </c>
+    </row>
+    <row r="305" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H305">
+        <v>302</v>
+      </c>
+      <c r="I305">
+        <v>-8089.3533571497537</v>
+      </c>
+    </row>
+    <row r="306" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H306">
+        <v>303</v>
+      </c>
+      <c r="I306">
+        <v>-3445.941484092109</v>
+      </c>
+    </row>
+    <row r="307" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H307">
+        <v>304</v>
+      </c>
+      <c r="I307">
+        <v>102794.87359385176</v>
+      </c>
+    </row>
+    <row r="308" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H308">
+        <v>305</v>
+      </c>
+      <c r="I308">
+        <v>66978.80578159522</v>
+      </c>
+    </row>
+    <row r="309" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H309">
+        <v>306</v>
+      </c>
+      <c r="I309">
+        <v>-5594.7889890579099</v>
+      </c>
+    </row>
+    <row r="310" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H310">
+        <v>307</v>
+      </c>
+      <c r="I310">
+        <v>40526.22527498116</v>
+      </c>
+    </row>
+    <row r="311" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H311">
+        <v>308</v>
+      </c>
+      <c r="I311">
+        <v>104862.51344207667</v>
+      </c>
+    </row>
+    <row r="312" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H312">
+        <v>309</v>
+      </c>
+      <c r="I312">
+        <v>17910.73706263362</v>
+      </c>
+    </row>
+    <row r="313" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H313">
+        <v>310</v>
+      </c>
+      <c r="I313">
+        <v>45860.228634719708</v>
+      </c>
+    </row>
+    <row r="314" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H314">
+        <v>311</v>
+      </c>
+      <c r="I314">
+        <v>12120.364853244508</v>
+      </c>
+    </row>
+    <row r="315" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H315">
+        <v>312</v>
+      </c>
+      <c r="I315">
+        <v>-22515.470101371582</v>
+      </c>
+    </row>
+    <row r="316" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H316">
+        <v>313</v>
+      </c>
+      <c r="I316">
+        <v>16320.872816857925</v>
+      </c>
+    </row>
+    <row r="317" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H317">
+        <v>314</v>
+      </c>
+      <c r="I317">
+        <v>87089.523474742295</v>
+      </c>
+    </row>
+    <row r="318" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H318">
+        <v>315</v>
+      </c>
+      <c r="I318">
+        <v>80554.689286247536</v>
+      </c>
+    </row>
+    <row r="319" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H319">
+        <v>316</v>
+      </c>
+      <c r="I319">
+        <v>41180.532211688886</v>
+      </c>
+    </row>
+    <row r="320" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H320">
+        <v>317</v>
+      </c>
+      <c r="I320">
+        <v>37389.369901003243</v>
+      </c>
+    </row>
+    <row r="321" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H321">
+        <v>318</v>
+      </c>
+      <c r="I321">
+        <v>30459.302907324105</v>
+      </c>
+    </row>
+    <row r="322" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H322">
+        <v>319</v>
+      </c>
+      <c r="I322">
+        <v>97423.430421811165</v>
+      </c>
+    </row>
+    <row r="323" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H323">
+        <v>320</v>
+      </c>
+      <c r="I323">
+        <v>-124576.72184496289</v>
+      </c>
+    </row>
+    <row r="324" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H324">
+        <v>321</v>
+      </c>
+      <c r="I324">
+        <v>61800.360623342087</v>
+      </c>
+    </row>
+    <row r="325" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H325">
+        <v>322</v>
+      </c>
+      <c r="I325">
+        <v>107365.48554357901</v>
+      </c>
+    </row>
+    <row r="326" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H326">
+        <v>323</v>
+      </c>
+      <c r="I326">
+        <v>-17535.379665048531</v>
+      </c>
+    </row>
+    <row r="327" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H327">
+        <v>324</v>
+      </c>
+      <c r="I327">
+        <v>87995.753813463089</v>
+      </c>
+    </row>
+    <row r="328" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H328">
+        <v>325</v>
+      </c>
+      <c r="I328">
+        <v>72471.474939723776</v>
+      </c>
+    </row>
+    <row r="329" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H329">
+        <v>326</v>
+      </c>
+      <c r="I329">
+        <v>110957.94170847503</v>
+      </c>
+    </row>
+    <row r="330" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H330">
+        <v>327</v>
+      </c>
+      <c r="I330">
+        <v>76897.689972113207</v>
+      </c>
+    </row>
+    <row r="331" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H331">
+        <v>328</v>
+      </c>
+      <c r="I331">
+        <v>-24254.641111432225</v>
+      </c>
+    </row>
+    <row r="332" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H332">
+        <v>329</v>
+      </c>
+      <c r="I332">
+        <v>52804.86678131255</v>
+      </c>
+    </row>
+    <row r="333" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H333">
+        <v>330</v>
+      </c>
+      <c r="I333">
+        <v>65264.251689004093</v>
+      </c>
+    </row>
+    <row r="334" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H334">
+        <v>331</v>
+      </c>
+      <c r="I334">
+        <v>54482.868946901901</v>
+      </c>
+    </row>
+    <row r="335" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H335">
+        <v>332</v>
+      </c>
+      <c r="I335">
+        <v>-36032.28224372532</v>
+      </c>
+    </row>
+    <row r="336" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H336">
+        <v>333</v>
+      </c>
+      <c r="I336">
+        <v>85823.2540243236</v>
+      </c>
+    </row>
+    <row r="337" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H337">
+        <v>334</v>
+      </c>
+      <c r="I337">
+        <v>130032.57065305636</v>
+      </c>
+    </row>
+    <row r="338" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H338">
+        <v>335</v>
+      </c>
+      <c r="I338">
+        <v>13194.343733496542</v>
+      </c>
+    </row>
+    <row r="339" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H339">
+        <v>336</v>
+      </c>
+      <c r="I339">
+        <v>43229.356094701667</v>
+      </c>
+    </row>
+    <row r="340" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H340">
+        <v>337</v>
+      </c>
+      <c r="I340">
+        <v>87454.690063025177</v>
+      </c>
+    </row>
+    <row r="341" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H341">
+        <v>338</v>
+      </c>
+      <c r="I341">
+        <v>25642.65840703086</v>
+      </c>
+    </row>
+    <row r="342" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H342">
+        <v>339</v>
+      </c>
+      <c r="I342">
+        <v>-35874.980820536963</v>
+      </c>
+    </row>
+    <row r="343" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H343">
+        <v>340</v>
+      </c>
+      <c r="I343">
+        <v>39913.16263432891</v>
+      </c>
+    </row>
+    <row r="344" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H344">
+        <v>341</v>
+      </c>
+      <c r="I344">
+        <v>4449.2005656108086</v>
+      </c>
+    </row>
+    <row r="345" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H345">
+        <v>342</v>
+      </c>
+      <c r="I345">
+        <v>6060.2497939551104</v>
+      </c>
+    </row>
+    <row r="346" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H346">
+        <v>343</v>
+      </c>
+      <c r="I346">
+        <v>24401.482445178437</v>
+      </c>
+    </row>
+    <row r="347" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H347">
+        <v>344</v>
+      </c>
+      <c r="I347">
+        <v>76365.737949420654</v>
+      </c>
+    </row>
+    <row r="348" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H348">
+        <v>345</v>
+      </c>
+      <c r="I348">
+        <v>28041.870210405585</v>
+      </c>
+    </row>
+    <row r="349" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H349">
+        <v>346</v>
+      </c>
+      <c r="I349">
+        <v>53583.94889826572</v>
+      </c>
+    </row>
+    <row r="350" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H350">
+        <v>347</v>
+      </c>
+      <c r="I350">
+        <v>85413.715787819689</v>
+      </c>
+    </row>
+    <row r="351" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H351">
+        <v>348</v>
+      </c>
+      <c r="I351">
+        <v>8912.7573559440934</v>
+      </c>
+    </row>
+    <row r="352" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H352">
+        <v>349</v>
+      </c>
+      <c r="I352">
+        <v>51091.360059894301</v>
+      </c>
+    </row>
+    <row r="353" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H353">
+        <v>350</v>
+      </c>
+      <c r="I353">
+        <v>22987.175508408065</v>
+      </c>
+    </row>
+    <row r="354" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H354">
+        <v>351</v>
+      </c>
+      <c r="I354">
+        <v>2671.7671012356295</v>
+      </c>
+    </row>
+    <row r="355" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H355">
+        <v>352</v>
+      </c>
+      <c r="I355">
+        <v>71758.881687263463</v>
+      </c>
+    </row>
+    <row r="356" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H356">
+        <v>353</v>
+      </c>
+      <c r="I356">
+        <v>112848.95007414851</v>
+      </c>
+    </row>
+    <row r="357" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H357">
+        <v>354</v>
+      </c>
+      <c r="I357">
+        <v>-77322.845485295838</v>
+      </c>
+    </row>
+    <row r="358" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H358">
+        <v>355</v>
+      </c>
+      <c r="I358">
+        <v>-12571.795403884898</v>
+      </c>
+    </row>
+    <row r="359" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H359">
+        <v>356</v>
+      </c>
+      <c r="I359">
+        <v>7052.1133344199043</v>
+      </c>
+    </row>
+    <row r="360" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H360">
+        <v>357</v>
+      </c>
+      <c r="I360">
+        <v>73103.456881594058</v>
+      </c>
+    </row>
+    <row r="361" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H361">
+        <v>358</v>
+      </c>
+      <c r="I361">
+        <v>-25280.863912123255</v>
+      </c>
+    </row>
+    <row r="362" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H362">
+        <v>359</v>
+      </c>
+      <c r="I362">
+        <v>69359.019977775926</v>
+      </c>
+    </row>
+    <row r="363" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H363">
+        <v>360</v>
+      </c>
+      <c r="I363">
+        <v>59322.606885907138</v>
+      </c>
+    </row>
+    <row r="364" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H364">
+        <v>361</v>
+      </c>
+      <c r="I364">
+        <v>-5732.0934817693778</v>
+      </c>
+    </row>
+    <row r="365" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H365">
+        <v>362</v>
+      </c>
+      <c r="I365">
+        <v>5535.7876676831802</v>
+      </c>
+    </row>
+    <row r="366" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H366">
+        <v>363</v>
+      </c>
+      <c r="I366">
+        <v>56129.437294680291</v>
+      </c>
+    </row>
+    <row r="367" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H367">
+        <v>364</v>
+      </c>
+      <c r="I367">
+        <v>121627.37953328411</v>
+      </c>
+    </row>
+    <row r="368" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H368">
+        <v>365</v>
+      </c>
+      <c r="I368">
+        <v>19802.827053132278</v>
+      </c>
+    </row>
+    <row r="369" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H369">
+        <v>366</v>
+      </c>
+      <c r="I369">
+        <v>41147.807650303264</v>
+      </c>
+    </row>
+    <row r="370" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H370">
+        <v>367</v>
+      </c>
+      <c r="I370">
+        <v>16754.57790069803</v>
+      </c>
+    </row>
+    <row r="371" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H371">
+        <v>368</v>
+      </c>
+      <c r="I371">
+        <v>57646.088241605205</v>
+      </c>
+    </row>
+    <row r="372" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H372">
+        <v>369</v>
+      </c>
+      <c r="I372">
+        <v>73561.280539942527</v>
+      </c>
+    </row>
+    <row r="373" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H373">
+        <v>370</v>
+      </c>
+      <c r="I373">
+        <v>111927.58804836111</v>
+      </c>
+    </row>
+    <row r="374" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H374">
+        <v>371</v>
+      </c>
+      <c r="I374">
+        <v>92082.118101451182</v>
+      </c>
+    </row>
+    <row r="375" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H375">
+        <v>372</v>
+      </c>
+      <c r="I375">
+        <v>31262.684835169319</v>
+      </c>
+    </row>
+    <row r="376" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H376">
+        <v>373</v>
+      </c>
+      <c r="I376">
+        <v>88428.704178009357</v>
+      </c>
+    </row>
+    <row r="377" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H377">
+        <v>374</v>
+      </c>
+      <c r="I377">
+        <v>40835.839878647777</v>
+      </c>
+    </row>
+    <row r="378" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H378">
+        <v>375</v>
+      </c>
+      <c r="I378">
+        <v>-39875.278442541341</v>
+      </c>
+    </row>
+    <row r="379" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H379">
+        <v>376</v>
+      </c>
+      <c r="I379">
+        <v>83278.341357671336</v>
+      </c>
+    </row>
+    <row r="380" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H380">
+        <v>377</v>
+      </c>
+      <c r="I380">
+        <v>65754.783766513923</v>
+      </c>
+    </row>
+    <row r="381" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H381">
+        <v>378</v>
+      </c>
+      <c r="I381">
+        <v>43285.68964884014</v>
+      </c>
+    </row>
+    <row r="382" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H382">
+        <v>379</v>
+      </c>
+      <c r="I382">
+        <v>45318.239212647153</v>
+      </c>
+    </row>
+    <row r="383" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H383">
+        <v>380</v>
+      </c>
+      <c r="I383">
+        <v>55936.642459818977</v>
+      </c>
+    </row>
+    <row r="384" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H384">
+        <v>381</v>
+      </c>
+      <c r="I384">
+        <v>75911.345981869235</v>
+      </c>
+    </row>
+    <row r="385" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H385">
+        <v>382</v>
+      </c>
+      <c r="I385">
+        <v>15668.828543108728</v>
+      </c>
+    </row>
+    <row r="386" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H386">
+        <v>383</v>
+      </c>
+      <c r="I386">
+        <v>87595.703672532778</v>
+      </c>
+    </row>
+    <row r="387" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H387">
+        <v>384</v>
+      </c>
+      <c r="I387">
+        <v>-6150.2484926810866</v>
+      </c>
+    </row>
+    <row r="388" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H388">
+        <v>385</v>
+      </c>
+      <c r="I388">
+        <v>26192.612423996965</v>
+      </c>
+    </row>
+    <row r="389" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H389">
+        <v>386</v>
+      </c>
+      <c r="I389">
+        <v>-55088.746598427882</v>
+      </c>
+    </row>
+    <row r="390" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H390">
+        <v>387</v>
+      </c>
+      <c r="I390">
+        <v>15517.983225828968</v>
+      </c>
+    </row>
+    <row r="391" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H391">
+        <v>388</v>
+      </c>
+      <c r="I391">
+        <v>43351.18285947846</v>
+      </c>
+    </row>
+    <row r="392" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H392">
+        <v>389</v>
+      </c>
+      <c r="I392">
+        <v>44231.979753500011</v>
+      </c>
+    </row>
+    <row r="393" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H393">
+        <v>390</v>
+      </c>
+      <c r="I393">
+        <v>123772.73438069182</v>
+      </c>
+    </row>
+    <row r="394" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H394">
+        <v>391</v>
+      </c>
+      <c r="I394">
+        <v>103577.0592483136</v>
+      </c>
+    </row>
+    <row r="395" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H395">
+        <v>392</v>
+      </c>
+      <c r="I395">
+        <v>80542.767714755435</v>
+      </c>
+    </row>
+    <row r="396" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H396">
+        <v>393</v>
+      </c>
+      <c r="I396">
+        <v>56304.59851808667</v>
+      </c>
+    </row>
+    <row r="397" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H397">
+        <v>394</v>
+      </c>
+      <c r="I397">
+        <v>57460.461142852801</v>
+      </c>
+    </row>
+    <row r="398" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H398">
+        <v>395</v>
+      </c>
+      <c r="I398">
+        <v>29124.617918486882</v>
+      </c>
+    </row>
+    <row r="399" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H399">
+        <v>396</v>
+      </c>
+      <c r="I399">
+        <v>10208.460642360165</v>
+      </c>
+    </row>
+    <row r="400" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H400">
+        <v>397</v>
+      </c>
+      <c r="I400">
+        <v>103309.38942810026</v>
+      </c>
+    </row>
+    <row r="401" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H401">
+        <v>398</v>
+      </c>
+      <c r="I401">
+        <v>-50903.932045400594</v>
+      </c>
+    </row>
+    <row r="402" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H402">
+        <v>399</v>
+      </c>
+      <c r="I402">
+        <v>8899.2248701871431</v>
+      </c>
+    </row>
+    <row r="403" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H403">
+        <v>400</v>
+      </c>
+      <c r="I403">
+        <v>-5480.1805288174219</v>
+      </c>
+    </row>
+    <row r="404" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H404">
+        <v>401</v>
+      </c>
+      <c r="I404">
+        <v>66890.795474583923</v>
+      </c>
+    </row>
+    <row r="405" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H405">
+        <v>402</v>
+      </c>
+      <c r="I405">
+        <v>86873.687328763059</v>
+      </c>
+    </row>
+    <row r="406" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H406">
+        <v>403</v>
+      </c>
+      <c r="I406">
+        <v>82226.980029361468</v>
+      </c>
+    </row>
+    <row r="407" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H407">
+        <v>404</v>
+      </c>
+      <c r="I407">
+        <v>7286.0663816214801</v>
+      </c>
+    </row>
+    <row r="408" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H408">
+        <v>405</v>
+      </c>
+      <c r="I408">
+        <v>86065.317692093187</v>
+      </c>
+    </row>
+    <row r="409" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H409">
+        <v>406</v>
+      </c>
+      <c r="I409">
+        <v>56092.305311841657</v>
+      </c>
+    </row>
+    <row r="410" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H410">
+        <v>407</v>
+      </c>
+      <c r="I410">
+        <v>2701.7326654330682</v>
+      </c>
+    </row>
+    <row r="411" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H411">
+        <v>408</v>
+      </c>
+      <c r="I411">
+        <v>-65307.634227189585</v>
+      </c>
+    </row>
+    <row r="412" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H412">
+        <v>409</v>
+      </c>
+      <c r="I412">
+        <v>-11730.804340596718</v>
+      </c>
+    </row>
+    <row r="413" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H413">
+        <v>410</v>
+      </c>
+      <c r="I413">
+        <v>24033.614333288671</v>
+      </c>
+    </row>
+    <row r="414" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H414">
+        <v>411</v>
+      </c>
+      <c r="I414">
+        <v>-5520.9645426892093</v>
+      </c>
+    </row>
+    <row r="415" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H415">
+        <v>412</v>
+      </c>
+      <c r="I415">
+        <v>60738.513204622956</v>
+      </c>
+    </row>
+    <row r="416" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H416">
+        <v>413</v>
+      </c>
+      <c r="I416">
+        <v>41917.396870366269</v>
+      </c>
+    </row>
+    <row r="417" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H417">
+        <v>414</v>
+      </c>
+      <c r="I417">
+        <v>52057.167818489601</v>
+      </c>
+    </row>
+    <row r="418" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H418">
+        <v>415</v>
+      </c>
+      <c r="I418">
+        <v>16355.86572427614</v>
+      </c>
+    </row>
+    <row r="419" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H419">
+        <v>416</v>
+      </c>
+      <c r="I419">
+        <v>74559.842495558085</v>
+      </c>
+    </row>
+    <row r="420" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H420">
+        <v>417</v>
+      </c>
+      <c r="I420">
+        <v>-46325.500330867551</v>
+      </c>
+    </row>
+    <row r="421" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H421">
+        <v>418</v>
+      </c>
+      <c r="I421">
+        <v>67776.593939509024</v>
+      </c>
+    </row>
+    <row r="422" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H422">
+        <v>419</v>
+      </c>
+      <c r="I422">
+        <v>28970.415816381865</v>
+      </c>
+    </row>
+    <row r="423" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H423">
+        <v>420</v>
+      </c>
+      <c r="I423">
+        <v>37707.599717015954</v>
+      </c>
+    </row>
+    <row r="424" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H424">
+        <v>421</v>
+      </c>
+      <c r="I424">
+        <v>-18379.803696671384</v>
+      </c>
+    </row>
+    <row r="425" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H425">
+        <v>422</v>
+      </c>
+      <c r="I425">
+        <v>-4998.1610954598873</v>
+      </c>
+    </row>
+    <row r="426" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H426">
+        <v>423</v>
+      </c>
+      <c r="I426">
+        <v>16716.023348635514</v>
+      </c>
+    </row>
+    <row r="427" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H427">
+        <v>424</v>
+      </c>
+      <c r="I427">
+        <v>30455.501378285495</v>
+      </c>
+    </row>
+    <row r="428" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H428">
+        <v>425</v>
+      </c>
+      <c r="I428">
+        <v>65865.099167193504</v>
+      </c>
+    </row>
+    <row r="429" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H429">
+        <v>426</v>
+      </c>
+      <c r="I429">
+        <v>-27597.053563216439</v>
+      </c>
+    </row>
+    <row r="430" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H430">
+        <v>427</v>
+      </c>
+      <c r="I430">
+        <v>36608.599006926801</v>
+      </c>
+    </row>
+    <row r="431" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H431">
+        <v>428</v>
+      </c>
+      <c r="I431">
+        <v>55772.754478207789</v>
+      </c>
+    </row>
+    <row r="432" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H432">
+        <v>429</v>
+      </c>
+      <c r="I432">
+        <v>36501.602484368268</v>
+      </c>
+    </row>
+    <row r="433" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H433">
+        <v>430</v>
+      </c>
+      <c r="I433">
+        <v>16529.772453529353</v>
+      </c>
+    </row>
+    <row r="434" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H434">
+        <v>431</v>
+      </c>
+      <c r="I434">
+        <v>83559.688841064795</v>
+      </c>
+    </row>
+    <row r="435" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H435">
+        <v>432</v>
+      </c>
+      <c r="I435">
+        <v>3869.5868171124894</v>
+      </c>
+    </row>
+    <row r="436" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H436">
+        <v>433</v>
+      </c>
+      <c r="I436">
+        <v>-67836.198724542774</v>
+      </c>
+    </row>
+    <row r="437" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H437">
+        <v>434</v>
+      </c>
+      <c r="I437">
+        <v>-410.72023722415906</v>
+      </c>
+    </row>
+    <row r="438" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H438">
+        <v>435</v>
+      </c>
+      <c r="I438">
+        <v>38290.288723053003</v>
+      </c>
+    </row>
+    <row r="439" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H439">
+        <v>436</v>
+      </c>
+      <c r="I439">
+        <v>58414.091688997229</v>
+      </c>
+    </row>
+    <row r="440" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H440">
+        <v>437</v>
+      </c>
+      <c r="I440">
+        <v>9225.4499898397189</v>
+      </c>
+    </row>
+    <row r="441" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H441">
+        <v>438</v>
+      </c>
+      <c r="I441">
+        <v>60613.08488238194</v>
+      </c>
+    </row>
+    <row r="442" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H442">
+        <v>439</v>
+      </c>
+      <c r="I442">
+        <v>-32641.228403683461</v>
+      </c>
+    </row>
+    <row r="443" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H443">
+        <v>440</v>
+      </c>
+      <c r="I443">
+        <v>82823.351345924762</v>
+      </c>
+    </row>
+    <row r="444" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H444">
+        <v>441</v>
+      </c>
+      <c r="I444">
+        <v>127511.38074704849</v>
+      </c>
+    </row>
+    <row r="445" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H445">
+        <v>442</v>
+      </c>
+      <c r="I445">
+        <v>-16675.224132986361</v>
+      </c>
+    </row>
+    <row r="446" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H446">
+        <v>443</v>
+      </c>
+      <c r="I446">
+        <v>39815.184267305856</v>
+      </c>
+    </row>
+    <row r="447" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H447">
+        <v>444</v>
+      </c>
+      <c r="I447">
+        <v>71394.889151060997</v>
+      </c>
+    </row>
+    <row r="448" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H448">
+        <v>445</v>
+      </c>
+      <c r="I448">
+        <v>21845.470632280398</v>
+      </c>
+    </row>
+    <row r="449" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H449">
+        <v>446</v>
+      </c>
+      <c r="I449">
+        <v>71042.628481499385</v>
+      </c>
+    </row>
+    <row r="450" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H450">
+        <v>447</v>
+      </c>
+      <c r="I450">
+        <v>92691.399382338073</v>
+      </c>
+    </row>
+    <row r="451" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H451">
+        <v>448</v>
+      </c>
+      <c r="I451">
+        <v>95409.58974414994</v>
+      </c>
+    </row>
+    <row r="452" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H452">
+        <v>449</v>
+      </c>
+      <c r="I452">
+        <v>22864.753630970852</v>
+      </c>
+    </row>
+    <row r="453" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H453">
+        <v>450</v>
+      </c>
+      <c r="I453">
+        <v>65684.654861545452</v>
+      </c>
+    </row>
+    <row r="454" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H454">
+        <v>451</v>
+      </c>
+      <c r="I454">
+        <v>-14787.058919321818</v>
+      </c>
+    </row>
+    <row r="455" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H455">
+        <v>452</v>
+      </c>
+      <c r="I455">
+        <v>-43426.690362375026</v>
+      </c>
+    </row>
+    <row r="456" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H456">
+        <v>453</v>
+      </c>
+      <c r="I456">
+        <v>64185.704743607028</v>
+      </c>
+    </row>
+    <row r="457" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H457">
+        <v>454</v>
+      </c>
+      <c r="I457">
+        <v>38736.925554695801</v>
+      </c>
+    </row>
+    <row r="458" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H458">
+        <v>455</v>
+      </c>
+      <c r="I458">
+        <v>61920.379175717651</v>
+      </c>
+    </row>
+    <row r="459" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H459">
+        <v>456</v>
+      </c>
+      <c r="I459">
+        <v>17026.316230537515</v>
+      </c>
+    </row>
+    <row r="460" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H460">
+        <v>457</v>
+      </c>
+      <c r="I460">
+        <v>37868.58645819065</v>
+      </c>
+    </row>
+    <row r="461" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H461">
+        <v>458</v>
+      </c>
+      <c r="I461">
+        <v>84321.864130162445</v>
+      </c>
+    </row>
+    <row r="462" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H462">
+        <v>459</v>
+      </c>
+      <c r="I462">
+        <v>-13002.302971764264</v>
+      </c>
+    </row>
+    <row r="463" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H463">
+        <v>460</v>
+      </c>
+      <c r="I463">
+        <v>70861.446074277555</v>
+      </c>
+    </row>
+    <row r="464" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H464">
+        <v>461</v>
+      </c>
+      <c r="I464">
+        <v>26257.264949035874</v>
+      </c>
+    </row>
+    <row r="465" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H465">
+        <v>462</v>
+      </c>
+      <c r="I465">
+        <v>28231.241549580518</v>
+      </c>
+    </row>
+    <row r="466" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H466">
+        <v>463</v>
+      </c>
+      <c r="I466">
+        <v>-76977.267077362601</v>
+      </c>
+    </row>
+    <row r="467" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H467">
+        <v>464</v>
+      </c>
+      <c r="I467">
+        <v>-45623.75190152353</v>
+      </c>
+    </row>
+    <row r="468" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H468">
+        <v>465</v>
+      </c>
+      <c r="I468">
+        <v>85172.496649270062</v>
+      </c>
+    </row>
+    <row r="469" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H469">
+        <v>466</v>
+      </c>
+      <c r="I469">
+        <v>7001.2848659003503</v>
+      </c>
+    </row>
+    <row r="470" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H470">
+        <v>467</v>
+      </c>
+      <c r="I470">
+        <v>61410.80581507794</v>
+      </c>
+    </row>
+    <row r="471" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H471">
+        <v>468</v>
+      </c>
+      <c r="I471">
+        <v>15850.155831001437</v>
+      </c>
+    </row>
+    <row r="472" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H472">
+        <v>469</v>
+      </c>
+      <c r="I472">
+        <v>25074.882926229082</v>
+      </c>
+    </row>
+    <row r="473" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H473">
+        <v>470</v>
+      </c>
+      <c r="I473">
+        <v>21426.281396491308</v>
+      </c>
+    </row>
+    <row r="474" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H474">
+        <v>471</v>
+      </c>
+      <c r="I474">
+        <v>117747.27603140639</v>
+      </c>
+    </row>
+    <row r="475" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H475">
+        <v>472</v>
+      </c>
+      <c r="I475">
+        <v>71101.512174577132</v>
+      </c>
+    </row>
+    <row r="476" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H476">
+        <v>473</v>
+      </c>
+      <c r="I476">
+        <v>43371.66881154076</v>
+      </c>
+    </row>
+    <row r="477" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H477">
+        <v>474</v>
+      </c>
+      <c r="I477">
+        <v>36983.607938895278</v>
+      </c>
+    </row>
+    <row r="478" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H478">
+        <v>475</v>
+      </c>
+      <c r="I478">
+        <v>-7872.7290622255678</v>
+      </c>
+    </row>
+    <row r="479" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H479">
+        <v>476</v>
+      </c>
+      <c r="I479">
+        <v>60057.349273289292</v>
+      </c>
+    </row>
+    <row r="480" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H480">
+        <v>477</v>
+      </c>
+      <c r="I480">
+        <v>-35419.536622617205</v>
+      </c>
+    </row>
+    <row r="481" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H481">
+        <v>478</v>
+      </c>
+      <c r="I481">
+        <v>19524.405454192674</v>
+      </c>
+    </row>
+    <row r="482" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H482">
+        <v>479</v>
+      </c>
+      <c r="I482">
+        <v>85126.169094608544</v>
+      </c>
+    </row>
+    <row r="483" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H483">
+        <v>480</v>
+      </c>
+      <c r="I483">
+        <v>57619.51321864147</v>
+      </c>
+    </row>
+    <row r="484" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H484">
+        <v>481</v>
+      </c>
+      <c r="I484">
+        <v>19536.93793505193</v>
+      </c>
+    </row>
+    <row r="485" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H485">
+        <v>482</v>
+      </c>
+      <c r="I485">
+        <v>70873.544874252548</v>
+      </c>
+    </row>
+    <row r="486" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H486">
+        <v>483</v>
+      </c>
+      <c r="I486">
+        <v>43364.914642624353</v>
+      </c>
+    </row>
+    <row r="487" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H487">
+        <v>484</v>
+      </c>
+      <c r="I487">
+        <v>-46852.10229181443</v>
+      </c>
+    </row>
+    <row r="488" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H488">
+        <v>485</v>
+      </c>
+      <c r="I488">
+        <v>9375.2852318941586</v>
+      </c>
+    </row>
+    <row r="489" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H489">
+        <v>486</v>
+      </c>
+      <c r="I489">
+        <v>-45689.708362230798</v>
+      </c>
+    </row>
+    <row r="490" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H490">
+        <v>487</v>
+      </c>
+      <c r="I490">
+        <v>33226.620706297181</v>
+      </c>
+    </row>
+    <row r="491" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H491">
+        <v>488</v>
+      </c>
+      <c r="I491">
+        <v>-53539.82348958186</v>
+      </c>
+    </row>
+    <row r="492" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H492">
+        <v>489</v>
+      </c>
+      <c r="I492">
+        <v>32914.325092987783</v>
+      </c>
+    </row>
+    <row r="493" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H493">
+        <v>490</v>
+      </c>
+      <c r="I493">
+        <v>69644.756413939816</v>
+      </c>
+    </row>
+    <row r="494" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H494">
+        <v>491</v>
+      </c>
+      <c r="I494">
+        <v>64645.294704649277</v>
+      </c>
+    </row>
+    <row r="495" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H495">
+        <v>492</v>
+      </c>
+      <c r="I495">
+        <v>28385.829889155066</v>
+      </c>
+    </row>
+    <row r="496" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H496">
+        <v>493</v>
+      </c>
+      <c r="I496">
+        <v>15688.828214405759</v>
+      </c>
+    </row>
+    <row r="497" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H497">
+        <v>494</v>
+      </c>
+      <c r="I497">
+        <v>59660.977518600121</v>
+      </c>
+    </row>
+    <row r="498" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H498">
+        <v>495</v>
+      </c>
+      <c r="I498">
+        <v>32772.664429377852</v>
+      </c>
+    </row>
+    <row r="499" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H499">
+        <v>496</v>
+      </c>
+      <c r="I499">
+        <v>58404.816556922975</v>
+      </c>
+    </row>
+    <row r="500" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H500">
+        <v>497</v>
+      </c>
+      <c r="I500">
+        <v>28516.176425670317</v>
+      </c>
+    </row>
+    <row r="501" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H501">
+        <v>498</v>
+      </c>
+      <c r="I501">
+        <v>-8153.0897834735515</v>
+      </c>
+    </row>
+    <row r="502" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H502">
+        <v>499</v>
+      </c>
+      <c r="I502">
+        <v>24357.275634208869</v>
+      </c>
+    </row>
+    <row r="503" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H503">
+        <v>500</v>
+      </c>
+      <c r="I503">
+        <v>31584.512296737215</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C41B94-488A-4907-AA81-E16DE94305D9}">
   <dimension ref="A1:N40"/>
   <sheetViews>
@@ -2639,31 +6842,31 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()</f>
-        <v>0.23080260504877292</v>
+        <v>0.76093718133296662</v>
       </c>
       <c r="B1">
         <f ca="1">RAND()+0.1</f>
-        <v>0.65529336528410542</v>
+        <v>0.66700166690952434</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A23" ca="1" si="0">RAND()</f>
-        <v>0.83229490853941124</v>
+        <v>7.2786690871155191E-2</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B26" ca="1" si="1">RAND()+0.1</f>
-        <v>0.66749831763936973</v>
+        <v>0.38746134419978451</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41364522466613651</v>
+        <v>0.82116472227117299</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17663786999358957</v>
+        <v>0.12349802666625667</v>
       </c>
       <c r="E3">
         <f>_xlfn.T.DIST(-1.85,200,1)</f>
@@ -2673,11 +6876,11 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24876405094857523</v>
+        <v>0.55421202163946104</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33144179646646899</v>
+        <v>0.99918535537844366</v>
       </c>
       <c r="G4">
         <f>1-E3</f>
@@ -2687,51 +6890,51 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8739185560696221</v>
+        <v>0.26568977195989463</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4903749295289922</v>
+        <v>0.55679846167086056</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35645394402211528</v>
+        <v>0.40376474080635316</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2019939304367139</v>
+        <v>0.9731230518310392</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79151422723947873</v>
+        <v>9.5917421593227914E-3</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16964176093094321</v>
+        <v>0.79793533296683883</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85886729199248835</v>
+        <v>0.34769333104159039</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55380900175827275</v>
+        <v>0.4503663501093319</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81671729561104889</v>
+        <v>0.177087527995899</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83675154116813044</v>
+        <v>0.33219986424622217</v>
       </c>
       <c r="L9">
         <v>0.02</v>
@@ -2744,11 +6947,11 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41336684187827266</v>
+        <v>0.77057621922525188</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90110148473486806</v>
+        <v>0.33111626500359137</v>
       </c>
       <c r="J10">
         <v>1000</v>
@@ -2764,11 +6967,11 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54547945568511891</v>
+        <v>0.77793096883192137</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18018591484750215</v>
+        <v>0.97653714433996197</v>
       </c>
       <c r="M11">
         <f>(L10-L9)/N9</f>
@@ -2778,81 +6981,81 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84896103712572069</v>
+        <v>0.88615683029806247</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8299486723254107</v>
+        <v>0.61708396384896236</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24634986745669007</v>
+        <v>0.45073271850580443</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49688315393609006</v>
+        <v>0.97498864934625185</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20028406281745037</v>
+        <v>0.7786202174331146</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27652795053742996</v>
+        <v>0.68845830541478892</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39040444535237817</v>
+        <v>0.55760005860746997</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69729471230137663</v>
+        <v>0.12895313904073949</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2360936681383983E-2</v>
+        <v>0.27062256121257733</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7422288569869423</v>
+        <v>0.76343920736569693</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48419683865222496</v>
+        <v>0.69274973341866852</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22684997122795761</v>
+        <v>0.75819993928496332</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17555634875259041</v>
+        <v>0.90808804129169862</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96604309122826881</v>
+        <v>0.31614667936092911</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10550566681725526</v>
+        <v>0.17968144382967233</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50372424416996864</v>
+        <v>0.71667382902054866</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
@@ -2861,21 +7064,21 @@
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82583322084890665</v>
+        <v>0.90491117368390328</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13983613254951813</v>
+        <v>0.92963038606610282</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88487222429926826</v>
+        <v>0.84833769767058509</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70483021633621912</v>
+        <v>1.0252328073758716</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -2888,11 +7091,11 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4908225049316002E-2</v>
+        <v>0.91387732753959516</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28146435535033576</v>
+        <v>1.0674567209836097</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -2907,11 +7110,11 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53135408529392092</v>
+        <v>0.32547141097359134</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31187883442025344</v>
+        <v>0.98345727196831867</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
@@ -2926,7 +7129,7 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24950961901448512</v>
+        <v>0.22455379352810181</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
@@ -2941,7 +7144,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54861384398565793</v>
+        <v>0.63778880933208593</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
@@ -2954,7 +7157,7 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67197608628874894</v>
+        <v>0.74303080749107964</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
@@ -3072,7 +7275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B06D9E-8B2F-4E04-9BC4-E1461079B5AB}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3146,7 +7349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BB0A93-C4AE-4C2A-A60A-CE0FE002FFE5}">
   <dimension ref="A1:U41"/>
   <sheetViews>
@@ -3659,7 +7862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB13C27-6DE8-4A77-B048-396A4501425F}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -3826,7 +8029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AB4519-DD58-45D9-BF1B-1CA15F2AD5D1}">
   <dimension ref="A1:T62"/>
   <sheetViews>
@@ -5119,7 +9322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B47539-1270-477D-BFF4-CB861FAE3D1E}">
   <dimension ref="A1:N1006"/>
   <sheetViews>
@@ -26299,7 +30502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD66668-241F-4A82-A97F-958C729C6F74}">
   <dimension ref="A1:L131"/>
   <sheetViews>
@@ -28635,11 +32838,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBD1702-789E-44E8-8DD6-FDCD1CA90464}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
